--- a/Data & Analysis/ETS_Corpus_of_Non-Native_Written_English/Romance/Analysis/TOEFL_Romance_cognate_counts_lemmas_pos.xlsx
+++ b/Data & Analysis/ETS_Corpus_of_Non-Native_Written_English/Romance/Analysis/TOEFL_Romance_cognate_counts_lemmas_pos.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Liat\Research\Repo\Cognates\Data\English\ETS_Corpus_of_Non-Native_Written_English\CognateCount\Romance\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6C094A-FAC1-47BA-8047-7F51CC5BD31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D930F67-6521-4A89-A369-2C3844E11724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOEFL_Romance_cognate_counts_le" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1398,10 +1399,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="104"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="4"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1486,51 +1487,28 @@
           <c:h val="0.73425299376640429"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
               <a:noFill/>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1540,23 +1518,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1566,19 +1528,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1588,21 +1538,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1612,19 +1548,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1633,10 +1557,207 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:delete val="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1966237719662379E-3"/>
+                  <c:y val="0.48453112687155225"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr">
+                    <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E710-4FB6-B5C7-D930890B8885}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1966237719662782E-3"/>
+                  <c:y val="0.4509653270291567"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E710-4FB6-B5C7-D930890B8885}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="0.43270601148260723"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E710-4FB6-B5C7-D930890B8885}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1966237719662379E-3"/>
+                  <c:y val="0.55500365867387147"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E710-4FB6-B5C7-D930890B8885}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1966237719662379E-3"/>
+                  <c:y val="0.47108887763143081"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E710-4FB6-B5C7-D930890B8885}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:noFill/>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:errBars>
-            <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
@@ -1647,19 +1768,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>5.5E-2</c:v>
+                    <c:v>4.4999999999999998E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.05</c:v>
+                    <c:v>4.1000000000000002E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.5999999999999999E-2</c:v>
+                    <c:v>3.9E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7E-2</c:v>
+                    <c:v>3.7999999999999999E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.2000000000000003E-2</c:v>
+                    <c:v>3.3000000000000002E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1671,19 +1792,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>5.5E-2</c:v>
+                    <c:v>4.4999999999999998E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.05</c:v>
+                    <c:v>4.1000000000000002E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.5999999999999999E-2</c:v>
+                    <c:v>3.9E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4.7E-2</c:v>
+                    <c:v>3.7999999999999999E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.2000000000000003E-2</c:v>
+                    <c:v>3.3000000000000002E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1702,7 +1823,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>TOEFL_Romance_cognate_counts_le!$B$19:$B$23</c:f>
               <c:strCache>
@@ -1724,32 +1845,31 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>TOEFL_Romance_cognate_counts_le!$D$19:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.255</c:v>
+                  <c:v>0.35199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.33600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.224</c:v>
+                  <c:v>0.32900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.38900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27900000000000003</c:v>
+                  <c:v>0.34899999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D6D-41DA-90A1-17485B7FD0AE}"/>
@@ -1764,60 +1884,37 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="1336365088"/>
         <c:axId val="1336365504"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:barChart>
+      <c:catAx>
         <c:axId val="1336365088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1336365504"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1336365504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.37000000000000005"/>
-          <c:min val="0.17"/>
+          <c:max val="0.5"/>
+          <c:min val="0.15000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1925,48 +2022,22 @@
         </c:txPr>
         <c:crossAx val="1336365088"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
         <c:minorUnit val="5.000000000000001E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2012,8 +2083,29 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2538,15 +2630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>249701</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>599999</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>93720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2874,9 +2966,9 @@
   <dimension ref="A1:ID39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="CX1" sqref="CX1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7868,7 +7960,7 @@
     </row>
     <row r="8" spans="1:238" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <f>IF(AND(B2+B5&gt;=$A$8,B3+B6&gt;=$A$8,B4+B7&gt;=$A$8,OR(B2&gt;0,B3&gt;0,B4&gt;0),OR(B5&gt;0,B6&gt;0,B7&gt;0)),1,0)</f>
@@ -7896,7 +7988,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
@@ -7908,7 +8000,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
@@ -7944,7 +8036,7 @@
       </c>
       <c r="T8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="0"/>
@@ -8028,7 +8120,7 @@
       </c>
       <c r="AO8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="1">
         <f t="shared" si="0"/>
@@ -8040,11 +8132,11 @@
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="0"/>
@@ -8056,11 +8148,11 @@
       </c>
       <c r="AV8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="1">
         <f t="shared" si="0"/>
@@ -8112,7 +8204,7 @@
       </c>
       <c r="BJ8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK8" s="1">
         <f t="shared" si="0"/>
@@ -8132,7 +8224,7 @@
       </c>
       <c r="BO8" s="1">
         <f t="shared" ref="BO8:DZ8" si="1">IF(AND(BO2+BO5&gt;=$A$8,BO3+BO6&gt;=$A$8,BO4+BO7&gt;=$A$8,OR(BO2&gt;0,BO3&gt;0,BO4&gt;0),OR(BO5&gt;0,BO6&gt;0,BO7&gt;0)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP8" s="1">
         <f t="shared" si="1"/>
@@ -8152,7 +8244,7 @@
       </c>
       <c r="BT8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="1">
         <f t="shared" si="1"/>
@@ -8176,11 +8268,11 @@
       </c>
       <c r="BZ8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB8" s="1">
         <f t="shared" si="1"/>
@@ -8188,7 +8280,7 @@
       </c>
       <c r="CC8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD8" s="1">
         <f t="shared" si="1"/>
@@ -8216,15 +8308,15 @@
       </c>
       <c r="CJ8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM8" s="1">
         <f t="shared" si="1"/>
@@ -8260,7 +8352,7 @@
       </c>
       <c r="CU8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV8" s="1">
         <f t="shared" si="1"/>
@@ -8292,11 +8384,11 @@
       </c>
       <c r="DC8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE8" s="1">
         <f t="shared" si="1"/>
@@ -8348,11 +8440,11 @@
       </c>
       <c r="DQ8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DS8" s="1">
         <f t="shared" si="1"/>
@@ -8396,7 +8488,7 @@
       </c>
       <c r="EC8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED8" s="1">
         <f t="shared" si="2"/>
@@ -8412,11 +8504,11 @@
       </c>
       <c r="EG8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI8" s="1">
         <f t="shared" si="2"/>
@@ -8496,7 +8588,7 @@
       </c>
       <c r="FB8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC8" s="1">
         <f t="shared" si="2"/>
@@ -8572,7 +8664,7 @@
       </c>
       <c r="FU8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV8" s="1">
         <f t="shared" si="2"/>
@@ -8608,7 +8700,7 @@
       </c>
       <c r="GD8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE8" s="1">
         <f t="shared" si="2"/>
@@ -8648,11 +8740,11 @@
       </c>
       <c r="GN8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GO8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP8" s="1">
         <f t="shared" si="3"/>
@@ -8708,7 +8800,7 @@
       </c>
       <c r="HC8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HD8" s="1">
         <f t="shared" si="3"/>
@@ -8720,7 +8812,7 @@
       </c>
       <c r="HF8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG8" s="1">
         <f t="shared" si="3"/>
@@ -8792,7 +8884,7 @@
       </c>
       <c r="HX8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY8" s="1">
         <f t="shared" si="3"/>
@@ -8808,7 +8900,7 @@
       </c>
       <c r="IB8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:238" x14ac:dyDescent="0.3">
@@ -8838,7 +8930,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
@@ -8850,7 +8942,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
@@ -8886,7 +8978,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U9">
         <f t="shared" si="4"/>
@@ -8970,7 +9062,7 @@
       </c>
       <c r="AO9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP9">
         <f t="shared" si="4"/>
@@ -8986,7 +9078,7 @@
       </c>
       <c r="AS9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT9">
         <f t="shared" si="4"/>
@@ -8998,7 +9090,7 @@
       </c>
       <c r="AV9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9">
         <f t="shared" si="4"/>
@@ -9054,7 +9146,7 @@
       </c>
       <c r="BJ9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK9">
         <f t="shared" si="4"/>
@@ -9074,7 +9166,7 @@
       </c>
       <c r="BO9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP9">
         <f t="shared" si="5"/>
@@ -9094,7 +9186,7 @@
       </c>
       <c r="BT9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU9">
         <f t="shared" si="5"/>
@@ -9118,11 +9210,11 @@
       </c>
       <c r="BZ9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB9">
         <f t="shared" si="5"/>
@@ -9130,7 +9222,7 @@
       </c>
       <c r="CC9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD9">
         <f t="shared" si="5"/>
@@ -9158,11 +9250,11 @@
       </c>
       <c r="CJ9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CK9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CL9">
         <f t="shared" si="5"/>
@@ -9202,7 +9294,7 @@
       </c>
       <c r="CU9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV9">
         <f t="shared" si="5"/>
@@ -9234,11 +9326,11 @@
       </c>
       <c r="DC9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DD9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE9">
         <f t="shared" si="5"/>
@@ -9338,7 +9430,7 @@
       </c>
       <c r="EC9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="ED9">
         <f t="shared" si="6"/>
@@ -9358,7 +9450,7 @@
       </c>
       <c r="EH9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EI9">
         <f t="shared" si="6"/>
@@ -9514,7 +9606,7 @@
       </c>
       <c r="FU9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FV9">
         <f t="shared" si="6"/>
@@ -9590,7 +9682,7 @@
       </c>
       <c r="GN9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GO9">
         <f t="shared" si="7"/>
@@ -9650,7 +9742,7 @@
       </c>
       <c r="HC9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HD9">
         <f t="shared" si="7"/>
@@ -9662,7 +9754,7 @@
       </c>
       <c r="HF9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HG9">
         <f t="shared" si="7"/>
@@ -9734,7 +9826,7 @@
       </c>
       <c r="HX9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="HY9">
         <f t="shared" si="7"/>
@@ -9750,7 +9842,7 @@
       </c>
       <c r="IB9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:238" x14ac:dyDescent="0.3">
@@ -9780,7 +9872,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <f t="shared" si="8"/>
@@ -9792,7 +9884,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L10">
         <f t="shared" si="8"/>
@@ -9828,7 +9920,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="U10">
         <f t="shared" si="8"/>
@@ -9912,7 +10004,7 @@
       </c>
       <c r="AO10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AP10">
         <f t="shared" si="8"/>
@@ -9924,11 +10016,11 @@
       </c>
       <c r="AR10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AT10">
         <f t="shared" si="8"/>
@@ -9940,11 +10032,11 @@
       </c>
       <c r="AV10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX10">
         <f t="shared" si="8"/>
@@ -9996,7 +10088,7 @@
       </c>
       <c r="BJ10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BK10">
         <f t="shared" si="8"/>
@@ -10016,7 +10108,7 @@
       </c>
       <c r="BO10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BP10">
         <f t="shared" si="9"/>
@@ -10036,7 +10128,7 @@
       </c>
       <c r="BT10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="BU10">
         <f t="shared" si="9"/>
@@ -10060,11 +10152,11 @@
       </c>
       <c r="BZ10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CA10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="CB10">
         <f t="shared" si="9"/>
@@ -10072,7 +10164,7 @@
       </c>
       <c r="CC10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="CD10">
         <f t="shared" si="9"/>
@@ -10100,15 +10192,15 @@
       </c>
       <c r="CJ10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="CK10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CL10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="CM10">
         <f t="shared" si="9"/>
@@ -10144,7 +10236,7 @@
       </c>
       <c r="CU10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV10">
         <f t="shared" si="9"/>
@@ -10176,11 +10268,11 @@
       </c>
       <c r="DC10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="DD10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="DE10">
         <f t="shared" si="9"/>
@@ -10232,11 +10324,11 @@
       </c>
       <c r="DQ10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DR10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DS10">
         <f t="shared" si="9"/>
@@ -10280,7 +10372,7 @@
       </c>
       <c r="EC10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="ED10">
         <f t="shared" si="10"/>
@@ -10296,11 +10388,11 @@
       </c>
       <c r="EG10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EH10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="EI10">
         <f t="shared" si="10"/>
@@ -10380,7 +10472,7 @@
       </c>
       <c r="FB10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC10">
         <f t="shared" si="10"/>
@@ -10456,7 +10548,7 @@
       </c>
       <c r="FU10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="FV10">
         <f t="shared" si="10"/>
@@ -10492,7 +10584,7 @@
       </c>
       <c r="GD10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GE10">
         <f t="shared" si="10"/>
@@ -10532,7 +10624,7 @@
       </c>
       <c r="GN10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="GO10">
         <f t="shared" si="11"/>
@@ -10592,7 +10684,7 @@
       </c>
       <c r="HC10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="HD10">
         <f t="shared" si="11"/>
@@ -10604,7 +10696,7 @@
       </c>
       <c r="HF10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="HG10">
         <f t="shared" si="11"/>
@@ -10676,7 +10768,7 @@
       </c>
       <c r="HX10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="HY10">
         <f t="shared" si="11"/>
@@ -10692,7 +10784,7 @@
       </c>
       <c r="IB10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:238" x14ac:dyDescent="0.3">
@@ -10722,7 +10814,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I11">
         <f t="shared" si="12"/>
@@ -10734,7 +10826,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L11">
         <f t="shared" si="12"/>
@@ -10770,7 +10862,7 @@
       </c>
       <c r="T11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U11">
         <f t="shared" si="12"/>
@@ -10854,7 +10946,7 @@
       </c>
       <c r="AO11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AP11">
         <f t="shared" si="12"/>
@@ -10866,11 +10958,11 @@
       </c>
       <c r="AR11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AT11">
         <f t="shared" si="12"/>
@@ -10882,11 +10974,11 @@
       </c>
       <c r="AV11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AW11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX11">
         <f t="shared" si="12"/>
@@ -10938,7 +11030,7 @@
       </c>
       <c r="BJ11">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BK11">
         <f t="shared" si="12"/>
@@ -10958,7 +11050,7 @@
       </c>
       <c r="BO11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BP11">
         <f t="shared" si="13"/>
@@ -10978,7 +11070,7 @@
       </c>
       <c r="BT11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BU11">
         <f t="shared" si="13"/>
@@ -11002,11 +11094,11 @@
       </c>
       <c r="BZ11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="CA11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="CB11">
         <f t="shared" si="13"/>
@@ -11014,7 +11106,7 @@
       </c>
       <c r="CC11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="CD11">
         <f t="shared" si="13"/>
@@ -11042,15 +11134,15 @@
       </c>
       <c r="CJ11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="CK11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CL11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="CM11">
         <f t="shared" si="13"/>
@@ -11086,7 +11178,7 @@
       </c>
       <c r="CU11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV11">
         <f t="shared" si="13"/>
@@ -11118,11 +11210,11 @@
       </c>
       <c r="DC11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="DD11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="DE11">
         <f t="shared" si="13"/>
@@ -11174,11 +11266,11 @@
       </c>
       <c r="DQ11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="DR11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="DS11">
         <f t="shared" si="13"/>
@@ -11222,7 +11314,7 @@
       </c>
       <c r="EC11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="ED11">
         <f t="shared" si="14"/>
@@ -11242,7 +11334,7 @@
       </c>
       <c r="EH11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="EI11">
         <f t="shared" si="14"/>
@@ -11322,7 +11414,7 @@
       </c>
       <c r="FB11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FC11">
         <f t="shared" si="14"/>
@@ -11398,7 +11490,7 @@
       </c>
       <c r="FU11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="FV11">
         <f t="shared" si="14"/>
@@ -11434,7 +11526,7 @@
       </c>
       <c r="GD11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GE11">
         <f t="shared" si="14"/>
@@ -11474,11 +11566,11 @@
       </c>
       <c r="GN11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="GO11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GP11">
         <f t="shared" si="15"/>
@@ -11534,7 +11626,7 @@
       </c>
       <c r="HC11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="HD11">
         <f t="shared" si="15"/>
@@ -11546,7 +11638,7 @@
       </c>
       <c r="HF11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="HG11">
         <f t="shared" si="15"/>
@@ -11618,7 +11710,7 @@
       </c>
       <c r="HX11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="HY11">
         <f t="shared" si="15"/>
@@ -11634,7 +11726,7 @@
       </c>
       <c r="IB11">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:238" x14ac:dyDescent="0.3">
@@ -11664,7 +11756,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <f t="shared" si="16"/>
@@ -11676,7 +11768,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12">
         <f t="shared" si="16"/>
@@ -11712,7 +11804,7 @@
       </c>
       <c r="T12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U12">
         <f t="shared" si="16"/>
@@ -11796,7 +11888,7 @@
       </c>
       <c r="AO12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
         <f t="shared" si="16"/>
@@ -11808,11 +11900,11 @@
       </c>
       <c r="AR12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT12">
         <f t="shared" si="16"/>
@@ -11824,11 +11916,11 @@
       </c>
       <c r="AV12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX12">
         <f t="shared" si="16"/>
@@ -11880,7 +11972,7 @@
       </c>
       <c r="BJ12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BK12">
         <f t="shared" si="16"/>
@@ -11900,7 +11992,7 @@
       </c>
       <c r="BO12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BP12">
         <f t="shared" si="17"/>
@@ -11920,7 +12012,7 @@
       </c>
       <c r="BT12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BU12">
         <f t="shared" si="17"/>
@@ -11944,11 +12036,11 @@
       </c>
       <c r="BZ12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB12">
         <f t="shared" si="17"/>
@@ -11956,7 +12048,7 @@
       </c>
       <c r="CC12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD12">
         <f t="shared" si="17"/>
@@ -11984,15 +12076,15 @@
       </c>
       <c r="CJ12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CK12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CL12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CM12">
         <f t="shared" si="17"/>
@@ -12028,7 +12120,7 @@
       </c>
       <c r="CU12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CV12">
         <f t="shared" si="17"/>
@@ -12060,11 +12152,11 @@
       </c>
       <c r="DC12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DD12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE12">
         <f t="shared" si="17"/>
@@ -12116,11 +12208,11 @@
       </c>
       <c r="DQ12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="DR12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DS12">
         <f t="shared" si="17"/>
@@ -12164,7 +12256,7 @@
       </c>
       <c r="EC12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="ED12">
         <f t="shared" si="18"/>
@@ -12180,11 +12272,11 @@
       </c>
       <c r="EG12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="EH12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EI12">
         <f t="shared" si="18"/>
@@ -12264,7 +12356,7 @@
       </c>
       <c r="FB12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FC12">
         <f t="shared" si="18"/>
@@ -12340,7 +12432,7 @@
       </c>
       <c r="FU12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="FV12">
         <f t="shared" si="18"/>
@@ -12376,7 +12468,7 @@
       </c>
       <c r="GD12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="GE12">
         <f t="shared" si="18"/>
@@ -12416,11 +12508,11 @@
       </c>
       <c r="GN12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="GO12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GP12">
         <f t="shared" si="19"/>
@@ -12476,7 +12568,7 @@
       </c>
       <c r="HC12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="HD12">
         <f t="shared" si="19"/>
@@ -12488,7 +12580,7 @@
       </c>
       <c r="HF12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HG12">
         <f t="shared" si="19"/>
@@ -12560,7 +12652,7 @@
       </c>
       <c r="HX12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="HY12">
         <f t="shared" si="19"/>
@@ -12576,7 +12668,7 @@
       </c>
       <c r="IB12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:238" x14ac:dyDescent="0.3">
@@ -12606,7 +12698,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I13">
         <f t="shared" si="20"/>
@@ -12618,7 +12710,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="L13">
         <f t="shared" si="20"/>
@@ -12654,7 +12746,7 @@
       </c>
       <c r="T13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="U13">
         <f t="shared" si="20"/>
@@ -12738,7 +12830,7 @@
       </c>
       <c r="AO13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="AP13">
         <f t="shared" si="20"/>
@@ -12750,11 +12842,11 @@
       </c>
       <c r="AR13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AS13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AT13">
         <f t="shared" si="20"/>
@@ -12766,11 +12858,11 @@
       </c>
       <c r="AV13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AW13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AX13">
         <f t="shared" si="20"/>
@@ -12822,7 +12914,7 @@
       </c>
       <c r="BJ13">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="BK13">
         <f t="shared" si="20"/>
@@ -12842,7 +12934,7 @@
       </c>
       <c r="BO13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="BP13">
         <f t="shared" si="21"/>
@@ -12862,7 +12954,7 @@
       </c>
       <c r="BT13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BU13">
         <f t="shared" si="21"/>
@@ -12886,11 +12978,11 @@
       </c>
       <c r="BZ13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="CA13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="CB13">
         <f t="shared" si="21"/>
@@ -12898,7 +12990,7 @@
       </c>
       <c r="CC13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="CD13">
         <f t="shared" si="21"/>
@@ -12926,15 +13018,15 @@
       </c>
       <c r="CJ13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="CK13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="CL13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="CM13">
         <f t="shared" si="21"/>
@@ -12970,7 +13062,7 @@
       </c>
       <c r="CU13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CV13">
         <f t="shared" si="21"/>
@@ -13002,11 +13094,11 @@
       </c>
       <c r="DC13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="DD13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DE13">
         <f t="shared" si="21"/>
@@ -13058,11 +13150,11 @@
       </c>
       <c r="DQ13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="DR13">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="DS13">
         <f t="shared" si="21"/>
@@ -13106,7 +13198,7 @@
       </c>
       <c r="EC13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="ED13">
         <f t="shared" si="22"/>
@@ -13122,11 +13214,11 @@
       </c>
       <c r="EG13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="EH13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="EI13">
         <f t="shared" si="22"/>
@@ -13206,7 +13298,7 @@
       </c>
       <c r="FB13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="FC13">
         <f t="shared" si="22"/>
@@ -13282,7 +13374,7 @@
       </c>
       <c r="FU13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="FV13">
         <f t="shared" si="22"/>
@@ -13318,7 +13410,7 @@
       </c>
       <c r="GD13">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="GE13">
         <f t="shared" si="22"/>
@@ -13358,11 +13450,11 @@
       </c>
       <c r="GN13">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="GO13">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="GP13">
         <f t="shared" si="23"/>
@@ -13418,7 +13510,7 @@
       </c>
       <c r="HC13">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="HD13">
         <f t="shared" si="23"/>
@@ -13430,7 +13522,7 @@
       </c>
       <c r="HF13">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="HG13">
         <f t="shared" si="23"/>
@@ -13502,7 +13594,7 @@
       </c>
       <c r="HX13">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="HY13">
         <f t="shared" si="23"/>
@@ -13518,7 +13610,7 @@
       </c>
       <c r="IB13">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:238" x14ac:dyDescent="0.3">
@@ -13548,7 +13640,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <f t="shared" si="24"/>
@@ -13560,7 +13652,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L14">
         <f t="shared" si="24"/>
@@ -13596,7 +13688,7 @@
       </c>
       <c r="T14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U14">
         <f t="shared" si="24"/>
@@ -13680,7 +13772,7 @@
       </c>
       <c r="AO14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AP14">
         <f t="shared" si="24"/>
@@ -13692,11 +13784,11 @@
       </c>
       <c r="AR14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AS14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT14">
         <f t="shared" si="24"/>
@@ -13708,11 +13800,11 @@
       </c>
       <c r="AV14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AW14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AX14">
         <f t="shared" si="24"/>
@@ -13764,7 +13856,7 @@
       </c>
       <c r="BJ14">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="BK14">
         <f t="shared" si="24"/>
@@ -13784,7 +13876,7 @@
       </c>
       <c r="BO14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BP14">
         <f t="shared" si="25"/>
@@ -13804,7 +13896,7 @@
       </c>
       <c r="BT14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="BU14">
         <f t="shared" si="25"/>
@@ -13828,11 +13920,11 @@
       </c>
       <c r="BZ14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="CA14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="CB14">
         <f t="shared" si="25"/>
@@ -13840,7 +13932,7 @@
       </c>
       <c r="CC14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="CD14">
         <f t="shared" si="25"/>
@@ -13868,15 +13960,15 @@
       </c>
       <c r="CJ14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="CK14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="CL14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="CM14">
         <f t="shared" si="25"/>
@@ -13912,7 +14004,7 @@
       </c>
       <c r="CU14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="CV14">
         <f t="shared" si="25"/>
@@ -13944,11 +14036,11 @@
       </c>
       <c r="DC14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="DD14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="DE14">
         <f t="shared" si="25"/>
@@ -14000,11 +14092,11 @@
       </c>
       <c r="DQ14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="DR14">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="DS14">
         <f t="shared" si="25"/>
@@ -14048,7 +14140,7 @@
       </c>
       <c r="EC14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="ED14">
         <f t="shared" si="26"/>
@@ -14064,11 +14156,11 @@
       </c>
       <c r="EG14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="EH14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="EI14">
         <f t="shared" si="26"/>
@@ -14148,7 +14240,7 @@
       </c>
       <c r="FB14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="FC14">
         <f t="shared" si="26"/>
@@ -14224,7 +14316,7 @@
       </c>
       <c r="FU14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="FV14">
         <f t="shared" si="26"/>
@@ -14260,7 +14352,7 @@
       </c>
       <c r="GD14">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="GE14">
         <f t="shared" si="26"/>
@@ -14300,11 +14392,11 @@
       </c>
       <c r="GN14">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="GO14">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="GP14">
         <f t="shared" si="27"/>
@@ -14360,7 +14452,7 @@
       </c>
       <c r="HC14">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="HD14">
         <f t="shared" si="27"/>
@@ -14372,7 +14464,7 @@
       </c>
       <c r="HF14">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="HG14">
         <f t="shared" si="27"/>
@@ -14444,7 +14536,7 @@
       </c>
       <c r="HX14">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="HY14">
         <f t="shared" si="27"/>
@@ -14460,7 +14552,7 @@
       </c>
       <c r="IB14">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:238" x14ac:dyDescent="0.3">
@@ -14490,7 +14582,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <f t="shared" si="28"/>
@@ -14502,7 +14594,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L15">
         <f t="shared" si="28"/>
@@ -14538,7 +14630,7 @@
       </c>
       <c r="T15">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <f t="shared" si="28"/>
@@ -14622,7 +14714,7 @@
       </c>
       <c r="AO15">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
         <f t="shared" si="28"/>
@@ -14638,7 +14730,7 @@
       </c>
       <c r="AS15">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15">
         <f t="shared" si="28"/>
@@ -14650,7 +14742,7 @@
       </c>
       <c r="AV15">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AW15">
         <f t="shared" si="28"/>
@@ -14706,7 +14798,7 @@
       </c>
       <c r="BJ15">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="BK15">
         <f t="shared" si="28"/>
@@ -14726,7 +14818,7 @@
       </c>
       <c r="BO15">
         <f t="shared" ref="BO15:DZ17" si="29">IF(BO$8=1,BO9/BO12,0)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="BP15">
         <f t="shared" si="29"/>
@@ -14746,7 +14838,7 @@
       </c>
       <c r="BT15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="BU15">
         <f t="shared" si="29"/>
@@ -14770,11 +14862,11 @@
       </c>
       <c r="BZ15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="CB15">
         <f t="shared" si="29"/>
@@ -14782,7 +14874,7 @@
       </c>
       <c r="CC15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="CD15">
         <f t="shared" si="29"/>
@@ -14810,11 +14902,11 @@
       </c>
       <c r="CJ15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="CL15">
         <f t="shared" si="29"/>
@@ -14854,7 +14946,7 @@
       </c>
       <c r="CU15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CV15">
         <f t="shared" si="29"/>
@@ -14886,11 +14978,11 @@
       </c>
       <c r="DC15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="DD15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE15">
         <f t="shared" si="29"/>
@@ -14990,7 +15082,7 @@
       </c>
       <c r="EC15">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="ED15">
         <f t="shared" si="30"/>
@@ -15010,7 +15102,7 @@
       </c>
       <c r="EH15">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI15">
         <f t="shared" si="30"/>
@@ -15166,7 +15258,7 @@
       </c>
       <c r="FU15">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FV15">
         <f t="shared" si="30"/>
@@ -15242,7 +15334,7 @@
       </c>
       <c r="GN15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="GO15">
         <f t="shared" si="31"/>
@@ -15302,7 +15394,7 @@
       </c>
       <c r="HC15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="HD15">
         <f t="shared" si="31"/>
@@ -15314,7 +15406,7 @@
       </c>
       <c r="HF15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG15">
         <f t="shared" si="31"/>
@@ -15386,7 +15478,7 @@
       </c>
       <c r="HX15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="HY15">
         <f t="shared" si="31"/>
@@ -15402,7 +15494,7 @@
       </c>
       <c r="IB15">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="16" spans="1:238" x14ac:dyDescent="0.3">
@@ -15432,7 +15524,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <f t="shared" si="32"/>
@@ -15444,7 +15536,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>0.39795918367346939</v>
       </c>
       <c r="L16">
         <f t="shared" si="32"/>
@@ -15480,7 +15572,7 @@
       </c>
       <c r="T16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.94827586206896552</v>
       </c>
       <c r="U16">
         <f t="shared" si="28"/>
@@ -15564,7 +15656,7 @@
       </c>
       <c r="AO16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.98148148148148151</v>
       </c>
       <c r="AP16">
         <f t="shared" si="28"/>
@@ -15576,11 +15668,11 @@
       </c>
       <c r="AR16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>8.5714285714285715E-2</v>
       </c>
       <c r="AS16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="AT16">
         <f t="shared" si="28"/>
@@ -15592,11 +15684,11 @@
       </c>
       <c r="AV16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>8.2352941176470587E-2</v>
       </c>
       <c r="AW16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="AX16">
         <f t="shared" si="28"/>
@@ -15648,7 +15740,7 @@
       </c>
       <c r="BJ16">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="BK16">
         <f t="shared" si="28"/>
@@ -15668,7 +15760,7 @@
       </c>
       <c r="BO16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="BP16">
         <f t="shared" si="29"/>
@@ -15688,7 +15780,7 @@
       </c>
       <c r="BT16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.62745098039215685</v>
       </c>
       <c r="BU16">
         <f t="shared" si="29"/>
@@ -15712,11 +15804,11 @@
       </c>
       <c r="BZ16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="CA16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.25225225225225223</v>
       </c>
       <c r="CB16">
         <f t="shared" si="29"/>
@@ -15724,7 +15816,7 @@
       </c>
       <c r="CC16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.57936507936507942</v>
       </c>
       <c r="CD16">
         <f t="shared" si="29"/>
@@ -15752,15 +15844,15 @@
       </c>
       <c r="CJ16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="CK16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.12698412698412698</v>
       </c>
       <c r="CL16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.15286624203821655</v>
       </c>
       <c r="CM16">
         <f t="shared" si="29"/>
@@ -15796,7 +15888,7 @@
       </c>
       <c r="CU16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="CV16">
         <f t="shared" si="29"/>
@@ -15828,11 +15920,11 @@
       </c>
       <c r="DC16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.53012048192771088</v>
       </c>
       <c r="DD16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="DE16">
         <f t="shared" si="29"/>
@@ -15884,11 +15976,11 @@
       </c>
       <c r="DQ16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>5.3097345132743362E-2</v>
       </c>
       <c r="DR16">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="DS16">
         <f t="shared" si="29"/>
@@ -15932,7 +16024,7 @@
       </c>
       <c r="EC16">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.77611940298507465</v>
       </c>
       <c r="ED16">
         <f t="shared" si="30"/>
@@ -15948,11 +16040,11 @@
       </c>
       <c r="EG16">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="EH16">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="EI16">
         <f t="shared" si="30"/>
@@ -16032,7 +16124,7 @@
       </c>
       <c r="FB16">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="FC16">
         <f t="shared" si="30"/>
@@ -16108,7 +16200,7 @@
       </c>
       <c r="FU16">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.88709677419354838</v>
       </c>
       <c r="FV16">
         <f t="shared" si="30"/>
@@ -16144,7 +16236,7 @@
       </c>
       <c r="GD16">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="GE16">
         <f t="shared" si="30"/>
@@ -16184,7 +16276,7 @@
       </c>
       <c r="GN16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="GO16">
         <f t="shared" si="31"/>
@@ -16244,7 +16336,7 @@
       </c>
       <c r="HC16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.17557251908396945</v>
       </c>
       <c r="HD16">
         <f t="shared" si="31"/>
@@ -16256,7 +16348,7 @@
       </c>
       <c r="HF16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="HG16">
         <f t="shared" si="31"/>
@@ -16328,7 +16420,7 @@
       </c>
       <c r="HX16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.59649122807017541</v>
       </c>
       <c r="HY16">
         <f t="shared" si="31"/>
@@ -16344,7 +16436,7 @@
       </c>
       <c r="IB16">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="17" spans="1:236" x14ac:dyDescent="0.3">
@@ -16374,7 +16466,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I17">
         <f t="shared" si="33"/>
@@ -16386,7 +16478,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.38144329896907214</v>
       </c>
       <c r="L17">
         <f t="shared" si="33"/>
@@ -16422,7 +16514,7 @@
       </c>
       <c r="T17">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.97619047619047616</v>
       </c>
       <c r="U17">
         <f t="shared" si="33"/>
@@ -16506,7 +16598,7 @@
       </c>
       <c r="AO17">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
         <f t="shared" si="33"/>
@@ -16518,11 +16610,11 @@
       </c>
       <c r="AR17">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="AS17">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="AT17">
         <f t="shared" si="33"/>
@@ -16534,11 +16626,11 @@
       </c>
       <c r="AV17">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.14606741573033707</v>
       </c>
       <c r="AW17">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AX17">
         <f t="shared" si="33"/>
@@ -16590,7 +16682,7 @@
       </c>
       <c r="BJ17">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.12389380530973451</v>
       </c>
       <c r="BK17">
         <f t="shared" si="33"/>
@@ -16610,7 +16702,7 @@
       </c>
       <c r="BO17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="BP17">
         <f t="shared" si="29"/>
@@ -16630,7 +16722,7 @@
       </c>
       <c r="BT17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.56097560975609762</v>
       </c>
       <c r="BU17">
         <f t="shared" si="29"/>
@@ -16654,11 +16746,11 @@
       </c>
       <c r="BZ17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="CA17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.25362318840579712</v>
       </c>
       <c r="CB17">
         <f t="shared" si="29"/>
@@ -16666,7 +16758,7 @@
       </c>
       <c r="CC17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.42657342657342656</v>
       </c>
       <c r="CD17">
         <f t="shared" si="29"/>
@@ -16694,15 +16786,15 @@
       </c>
       <c r="CJ17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.68852459016393441</v>
       </c>
       <c r="CK17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.22093023255813954</v>
       </c>
       <c r="CL17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="CM17">
         <f t="shared" si="29"/>
@@ -16738,7 +16830,7 @@
       </c>
       <c r="CU17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="CV17">
         <f t="shared" si="29"/>
@@ -16770,11 +16862,11 @@
       </c>
       <c r="DC17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.36956521739130432</v>
       </c>
       <c r="DD17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="DE17">
         <f t="shared" si="29"/>
@@ -16826,11 +16918,11 @@
       </c>
       <c r="DQ17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>6.7307692307692304E-2</v>
       </c>
       <c r="DR17">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.36585365853658536</v>
       </c>
       <c r="DS17">
         <f t="shared" si="29"/>
@@ -16874,7 +16966,7 @@
       </c>
       <c r="EC17">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="ED17">
         <f t="shared" si="30"/>
@@ -16894,7 +16986,7 @@
       </c>
       <c r="EH17">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI17">
         <f t="shared" si="30"/>
@@ -16974,7 +17066,7 @@
       </c>
       <c r="FB17">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="FC17">
         <f t="shared" si="30"/>
@@ -17050,7 +17142,7 @@
       </c>
       <c r="FU17">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.93442622950819676</v>
       </c>
       <c r="FV17">
         <f t="shared" si="30"/>
@@ -17086,7 +17178,7 @@
       </c>
       <c r="GD17">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="GE17">
         <f t="shared" si="30"/>
@@ -17126,11 +17218,11 @@
       </c>
       <c r="GN17">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="GO17">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>4.2105263157894736E-2</v>
       </c>
       <c r="GP17">
         <f t="shared" si="31"/>
@@ -17186,7 +17278,7 @@
       </c>
       <c r="HC17">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.14743589743589744</v>
       </c>
       <c r="HD17">
         <f t="shared" si="31"/>
@@ -17198,7 +17290,7 @@
       </c>
       <c r="HF17">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HG17">
         <f t="shared" si="31"/>
@@ -17270,7 +17362,7 @@
       </c>
       <c r="HX17">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="HY17">
         <f t="shared" si="31"/>
@@ -17286,7 +17378,7 @@
       </c>
       <c r="IB17">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:236" x14ac:dyDescent="0.3">
@@ -17297,26 +17389,26 @@
     <row r="19" spans="1:236" x14ac:dyDescent="0.3">
       <c r="A19" cm="1">
         <f t="array" ref="A19">_xlfn.STDEV.P(IF($B$8:$IB$8=1,B15:IB15))/SQRT(COUNTIF($B$8:$IB$8,"&gt;0"))</f>
-        <v>5.4873903365828036E-2</v>
+        <v>4.5208486510391409E-2</v>
       </c>
       <c r="B19" t="s">
         <v>246</v>
       </c>
       <c r="C19">
         <f>AVERAGEIF(B8:IB8,"=1",B15:IB15)</f>
-        <v>0.25544983366391982</v>
+        <v>0.352095644519345</v>
       </c>
       <c r="D19">
         <f>TRUNC(C19,3)</f>
-        <v>0.255</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E19">
         <f>ROUND(A19,3)</f>
-        <v>5.5E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G19">
         <f>D23-D19</f>
-        <v>2.4000000000000021E-2</v>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="N19" t="s">
         <v>246</v>
@@ -17325,22 +17417,22 @@
     <row r="20" spans="1:236" x14ac:dyDescent="0.3">
       <c r="A20" cm="1">
         <f t="array" ref="A20">_xlfn.STDEV.P(IF($B$8:$IB$8=1,B16:IB16))/SQRT(COUNTIF($B$8:$IB$8,"&gt;0"))</f>
-        <v>4.9538643321979943E-2</v>
+        <v>4.0969380305965392E-2</v>
       </c>
       <c r="B20" t="s">
         <v>251</v>
       </c>
       <c r="C20">
         <f>AVERAGEIF(B8:IB8,"=1",B16:IB16)</f>
-        <v>0.23878208635822334</v>
+        <v>0.33630088392183966</v>
       </c>
       <c r="D20">
         <f>TRUNC(C20,3)</f>
-        <v>0.23799999999999999</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="E20">
         <f>ROUND(A20,3)</f>
-        <v>0.05</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="N20" t="s">
         <v>247</v>
@@ -17349,22 +17441,22 @@
     <row r="21" spans="1:236" x14ac:dyDescent="0.3">
       <c r="A21" cm="1">
         <f t="array" ref="A21">_xlfn.STDEV.P(IF($B$8:$IB$8=1,B17:IB17))/SQRT(COUNTIF($B$8:$IB$8,"&gt;0"))</f>
-        <v>4.6102988383658429E-2</v>
+        <v>3.9409511932006841E-2</v>
       </c>
       <c r="B21" t="s">
         <v>248</v>
       </c>
       <c r="C21">
         <f>AVERAGEIF(B8:IB8,"=1",B17:IB17)</f>
-        <v>0.22490673264631425</v>
+        <v>0.32973244250215111</v>
       </c>
       <c r="D21">
         <f>TRUNC(C21,3)</f>
-        <v>0.224</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="E21">
         <f>ROUND(A21,3)</f>
-        <v>4.5999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="N21" t="s">
         <v>248</v>
@@ -17373,22 +17465,22 @@
     <row r="22" spans="1:236" x14ac:dyDescent="0.3">
       <c r="A22" cm="1">
         <f t="array" ref="A22">_xlfn.STDEV.P(IF($B$8:$IB$8&gt;0,B33:IB33))/SQRT(COUNTIF($B$8:$IB$8,"&gt;0"))</f>
-        <v>4.6636953338402974E-2</v>
+        <v>3.7731906525172457E-2</v>
       </c>
       <c r="B22" t="s">
         <v>253</v>
       </c>
       <c r="C22">
         <f>AVERAGEIF(B8:IB8,"=1",B33:IB33)</f>
-        <v>0.30057752268875565</v>
+        <v>0.38994284701492454</v>
       </c>
       <c r="D22">
         <f>TRUNC(C22,3)</f>
-        <v>0.3</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="E22">
         <f>ROUND(A22,3)</f>
-        <v>4.7E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="N22" t="s">
         <v>249</v>
@@ -17397,22 +17489,22 @@
     <row r="23" spans="1:236" x14ac:dyDescent="0.3">
       <c r="A23" cm="1">
         <f t="array" ref="A23">_xlfn.STDEV.P(IF($B$8:$IB$8&gt;0,B39:IB39))/SQRT(COUNTIF($B$8:$IB$8,"&gt;0"))</f>
-        <v>4.165298937619534E-2</v>
+        <v>3.3451651857168141E-2</v>
       </c>
       <c r="B23" t="s">
         <v>252</v>
       </c>
       <c r="C23">
         <f>AVERAGEIF(B8:IB8,"=1",B39:IB39)</f>
-        <v>0.27980905194526345</v>
+        <v>0.349947290654048</v>
       </c>
       <c r="D23">
         <f>TRUNC(C23,3)</f>
-        <v>0.27900000000000003</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="E23">
         <f>ROUND(A23,3)</f>
-        <v>4.2000000000000003E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N23" t="s">
         <v>250</v>
@@ -18865,7 +18957,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I31">
         <f t="shared" si="34"/>
@@ -18877,7 +18969,7 @@
       </c>
       <c r="K31">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L31">
         <f t="shared" si="34"/>
@@ -18913,7 +19005,7 @@
       </c>
       <c r="T31">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="U31">
         <f t="shared" si="34"/>
@@ -18997,7 +19089,7 @@
       </c>
       <c r="AO31">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP31">
         <f t="shared" si="34"/>
@@ -19009,11 +19101,11 @@
       </c>
       <c r="AR31">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS31">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT31">
         <f t="shared" si="34"/>
@@ -19025,11 +19117,11 @@
       </c>
       <c r="AV31">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW31">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX31">
         <f t="shared" si="34"/>
@@ -19081,7 +19173,7 @@
       </c>
       <c r="BJ31">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BK31">
         <f t="shared" si="34"/>
@@ -19101,7 +19193,7 @@
       </c>
       <c r="BO31">
         <f t="shared" ref="BO31:DZ31" si="35">IF(BO$8=1,BO30,0)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="BP31">
         <f t="shared" si="35"/>
@@ -19121,7 +19213,7 @@
       </c>
       <c r="BT31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BU31">
         <f t="shared" si="35"/>
@@ -19145,11 +19237,11 @@
       </c>
       <c r="BZ31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CA31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="CB31">
         <f t="shared" si="35"/>
@@ -19157,7 +19249,7 @@
       </c>
       <c r="CC31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="CD31">
         <f t="shared" si="35"/>
@@ -19185,15 +19277,15 @@
       </c>
       <c r="CJ31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="CK31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="CL31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="CM31">
         <f t="shared" si="35"/>
@@ -19229,7 +19321,7 @@
       </c>
       <c r="CU31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CV31">
         <f t="shared" si="35"/>
@@ -19261,11 +19353,11 @@
       </c>
       <c r="DC31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="DD31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="DE31">
         <f t="shared" si="35"/>
@@ -19317,11 +19409,11 @@
       </c>
       <c r="DQ31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR31">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="DS31">
         <f t="shared" si="35"/>
@@ -19365,7 +19457,7 @@
       </c>
       <c r="EC31">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="ED31">
         <f t="shared" si="36"/>
@@ -19381,11 +19473,11 @@
       </c>
       <c r="EG31">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EH31">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="EI31">
         <f t="shared" si="36"/>
@@ -19541,7 +19633,7 @@
       </c>
       <c r="FU31">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="FV31">
         <f t="shared" si="36"/>
@@ -19617,11 +19709,11 @@
       </c>
       <c r="GN31">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="GO31">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GP31">
         <f t="shared" si="37"/>
@@ -19677,7 +19769,7 @@
       </c>
       <c r="HC31">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="HD31">
         <f t="shared" si="37"/>
@@ -19689,7 +19781,7 @@
       </c>
       <c r="HF31">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="HG31">
         <f t="shared" si="37"/>
@@ -19761,7 +19853,7 @@
       </c>
       <c r="HX31">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="HY31">
         <f t="shared" si="37"/>
@@ -19777,7 +19869,7 @@
       </c>
       <c r="IB31">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:236" x14ac:dyDescent="0.3">
@@ -19807,7 +19899,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I32">
         <f t="shared" si="38"/>
@@ -19819,7 +19911,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L32">
         <f t="shared" si="38"/>
@@ -19855,7 +19947,7 @@
       </c>
       <c r="T32">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="U32">
         <f t="shared" si="38"/>
@@ -19939,7 +20031,7 @@
       </c>
       <c r="AO32">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP32">
         <f t="shared" si="38"/>
@@ -19951,11 +20043,11 @@
       </c>
       <c r="AR32">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS32">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT32">
         <f t="shared" si="38"/>
@@ -19967,11 +20059,11 @@
       </c>
       <c r="AV32">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AW32">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AX32">
         <f t="shared" si="38"/>
@@ -20023,7 +20115,7 @@
       </c>
       <c r="BJ32">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="BK32">
         <f t="shared" si="38"/>
@@ -20043,7 +20135,7 @@
       </c>
       <c r="BO32">
         <f t="shared" ref="BO32:DZ32" si="39">IF(BO$8=1,BO29+BO30,0)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BP32">
         <f t="shared" si="39"/>
@@ -20063,7 +20155,7 @@
       </c>
       <c r="BT32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BU32">
         <f t="shared" si="39"/>
@@ -20087,11 +20179,11 @@
       </c>
       <c r="BZ32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CA32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="CB32">
         <f t="shared" si="39"/>
@@ -20099,7 +20191,7 @@
       </c>
       <c r="CC32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="CD32">
         <f t="shared" si="39"/>
@@ -20127,15 +20219,15 @@
       </c>
       <c r="CJ32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="CK32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="CL32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="CM32">
         <f t="shared" si="39"/>
@@ -20171,7 +20263,7 @@
       </c>
       <c r="CU32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CV32">
         <f t="shared" si="39"/>
@@ -20203,11 +20295,11 @@
       </c>
       <c r="DC32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="DD32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="DE32">
         <f t="shared" si="39"/>
@@ -20259,11 +20351,11 @@
       </c>
       <c r="DQ32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="DR32">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="DS32">
         <f t="shared" si="39"/>
@@ -20307,7 +20399,7 @@
       </c>
       <c r="EC32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="ED32">
         <f t="shared" si="40"/>
@@ -20323,11 +20415,11 @@
       </c>
       <c r="EG32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="EH32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="EI32">
         <f t="shared" si="40"/>
@@ -20407,7 +20499,7 @@
       </c>
       <c r="FB32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="FC32">
         <f t="shared" si="40"/>
@@ -20483,7 +20575,7 @@
       </c>
       <c r="FU32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="FV32">
         <f t="shared" si="40"/>
@@ -20519,7 +20611,7 @@
       </c>
       <c r="GD32">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="GE32">
         <f t="shared" si="40"/>
@@ -20559,11 +20651,11 @@
       </c>
       <c r="GN32">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="GO32">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="GP32">
         <f t="shared" si="41"/>
@@ -20619,7 +20711,7 @@
       </c>
       <c r="HC32">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="HD32">
         <f t="shared" si="41"/>
@@ -20631,7 +20723,7 @@
       </c>
       <c r="HF32">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="HG32">
         <f t="shared" si="41"/>
@@ -20703,7 +20795,7 @@
       </c>
       <c r="HX32">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="HY32">
         <f t="shared" si="41"/>
@@ -20719,7 +20811,7 @@
       </c>
       <c r="IB32">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:236" x14ac:dyDescent="0.3">
@@ -20749,7 +20841,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="I33">
         <f t="shared" si="42"/>
@@ -20761,7 +20853,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="L33">
         <f t="shared" si="42"/>
@@ -20797,7 +20889,7 @@
       </c>
       <c r="T33">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="U33">
         <f t="shared" si="42"/>
@@ -20881,7 +20973,7 @@
       </c>
       <c r="AO33">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="AP33">
         <f t="shared" si="42"/>
@@ -20893,11 +20985,11 @@
       </c>
       <c r="AR33">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AS33">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33">
         <f t="shared" si="42"/>
@@ -20909,11 +21001,11 @@
       </c>
       <c r="AV33">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.13207547169811321</v>
       </c>
       <c r="AW33">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.15714285714285714</v>
       </c>
       <c r="AX33">
         <f t="shared" si="42"/>
@@ -20965,7 +21057,7 @@
       </c>
       <c r="BJ33">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="BK33">
         <f t="shared" si="42"/>
@@ -20985,7 +21077,7 @@
       </c>
       <c r="BO33">
         <f t="shared" ref="BO33:DZ33" si="43">IF(AND(BO$8=1, BO31&gt;0),BO31/BO32,0)</f>
-        <v>0</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="BP33">
         <f t="shared" si="43"/>
@@ -21005,7 +21097,7 @@
       </c>
       <c r="BT33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="BU33">
         <f t="shared" si="43"/>
@@ -21029,11 +21121,11 @@
       </c>
       <c r="BZ33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="CA33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CB33">
         <f t="shared" si="43"/>
@@ -21041,7 +21133,7 @@
       </c>
       <c r="CC33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.8271604938271605</v>
       </c>
       <c r="CD33">
         <f t="shared" si="43"/>
@@ -21069,15 +21161,15 @@
       </c>
       <c r="CJ33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.55769230769230771</v>
       </c>
       <c r="CK33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.13432835820895522</v>
       </c>
       <c r="CL33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CM33">
         <f t="shared" si="43"/>
@@ -21113,7 +21205,7 @@
       </c>
       <c r="CU33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="CV33">
         <f t="shared" si="43"/>
@@ -21145,11 +21237,11 @@
       </c>
       <c r="DC33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="DD33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="DE33">
         <f t="shared" si="43"/>
@@ -21201,11 +21293,11 @@
       </c>
       <c r="DQ33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="DR33">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.83720930232558144</v>
       </c>
       <c r="DS33">
         <f t="shared" si="43"/>
@@ -21249,7 +21341,7 @@
       </c>
       <c r="EC33">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="ED33">
         <f t="shared" si="44"/>
@@ -21265,11 +21357,11 @@
       </c>
       <c r="EG33">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="EH33">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EI33">
         <f t="shared" si="44"/>
@@ -21425,7 +21517,7 @@
       </c>
       <c r="FU33">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="FV33">
         <f t="shared" si="44"/>
@@ -21501,11 +21593,11 @@
       </c>
       <c r="GN33">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.42016806722689076</v>
       </c>
       <c r="GO33">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="GP33">
         <f t="shared" si="45"/>
@@ -21561,7 +21653,7 @@
       </c>
       <c r="HC33">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.2264808362369338</v>
       </c>
       <c r="HD33">
         <f t="shared" si="45"/>
@@ -21573,7 +21665,7 @@
       </c>
       <c r="HF33">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="HG33">
         <f t="shared" si="45"/>
@@ -21645,7 +21737,7 @@
       </c>
       <c r="HX33">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.83606557377049184</v>
       </c>
       <c r="HY33">
         <f t="shared" si="45"/>
@@ -21661,7 +21753,7 @@
       </c>
       <c r="IB33">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="35" spans="1:236" x14ac:dyDescent="0.3">
@@ -23111,7 +23203,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>406878</v>
       </c>
       <c r="I37">
         <f t="shared" si="46"/>
@@ -23123,7 +23215,7 @@
       </c>
       <c r="K37">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>262844</v>
       </c>
       <c r="L37">
         <f t="shared" si="46"/>
@@ -23159,7 +23251,7 @@
       </c>
       <c r="T37">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2156744</v>
       </c>
       <c r="U37">
         <f t="shared" si="46"/>
@@ -23243,7 +23335,7 @@
       </c>
       <c r="AO37">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>409612</v>
       </c>
       <c r="AP37">
         <f t="shared" si="46"/>
@@ -23255,11 +23347,11 @@
       </c>
       <c r="AR37">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>70142</v>
       </c>
       <c r="AS37">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>293776</v>
       </c>
       <c r="AT37">
         <f t="shared" si="46"/>
@@ -23271,11 +23363,11 @@
       </c>
       <c r="AV37">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>214631</v>
       </c>
       <c r="AW37">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>331353</v>
       </c>
       <c r="AX37">
         <f t="shared" si="46"/>
@@ -23327,7 +23419,7 @@
       </c>
       <c r="BJ37">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>229626</v>
       </c>
       <c r="BK37">
         <f t="shared" si="46"/>
@@ -23347,7 +23439,7 @@
       </c>
       <c r="BO37">
         <f t="shared" ref="BO37:DZ37" si="47">IF(BO$8=1,BO36,0)</f>
-        <v>0</v>
+        <v>425435</v>
       </c>
       <c r="BP37">
         <f t="shared" si="47"/>
@@ -23367,7 +23459,7 @@
       </c>
       <c r="BT37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>182093</v>
       </c>
       <c r="BU37">
         <f t="shared" si="47"/>
@@ -23391,11 +23483,11 @@
       </c>
       <c r="BZ37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>224429</v>
       </c>
       <c r="CA37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>958547</v>
       </c>
       <c r="CB37">
         <f t="shared" si="47"/>
@@ -23403,7 +23495,7 @@
       </c>
       <c r="CC37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>25385</v>
       </c>
       <c r="CD37">
         <f t="shared" si="47"/>
@@ -23431,15 +23523,15 @@
       </c>
       <c r="CJ37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1056217</v>
       </c>
       <c r="CK37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>141705</v>
       </c>
       <c r="CL37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>89241</v>
       </c>
       <c r="CM37">
         <f t="shared" si="47"/>
@@ -23475,7 +23567,7 @@
       </c>
       <c r="CU37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>109384</v>
       </c>
       <c r="CV37">
         <f t="shared" si="47"/>
@@ -23507,11 +23599,11 @@
       </c>
       <c r="DC37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>566271</v>
       </c>
       <c r="DD37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>68601</v>
       </c>
       <c r="DE37">
         <f t="shared" si="47"/>
@@ -23563,11 +23655,11 @@
       </c>
       <c r="DQ37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>299303</v>
       </c>
       <c r="DR37">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>158493</v>
       </c>
       <c r="DS37">
         <f t="shared" si="47"/>
@@ -23611,7 +23703,7 @@
       </c>
       <c r="EC37">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>467582</v>
       </c>
       <c r="ED37">
         <f t="shared" si="48"/>
@@ -23631,7 +23723,7 @@
       </c>
       <c r="EH37">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1234981</v>
       </c>
       <c r="EI37">
         <f t="shared" si="48"/>
@@ -23711,7 +23803,7 @@
       </c>
       <c r="FB37">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>151327</v>
       </c>
       <c r="FC37">
         <f t="shared" si="48"/>
@@ -23787,7 +23879,7 @@
       </c>
       <c r="FU37">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>946446</v>
       </c>
       <c r="FV37">
         <f t="shared" si="48"/>
@@ -23823,7 +23915,7 @@
       </c>
       <c r="GD37">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>68039</v>
       </c>
       <c r="GE37">
         <f t="shared" si="48"/>
@@ -23863,11 +23955,11 @@
       </c>
       <c r="GN37">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>589269</v>
       </c>
       <c r="GO37">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>92219</v>
       </c>
       <c r="GP37">
         <f t="shared" si="49"/>
@@ -23923,7 +24015,7 @@
       </c>
       <c r="HC37">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>720730</v>
       </c>
       <c r="HD37">
         <f t="shared" si="49"/>
@@ -23935,7 +24027,7 @@
       </c>
       <c r="HF37">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>479000</v>
       </c>
       <c r="HG37">
         <f t="shared" si="49"/>
@@ -24007,7 +24099,7 @@
       </c>
       <c r="HX37">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>561626</v>
       </c>
       <c r="HY37">
         <f t="shared" si="49"/>
@@ -24023,7 +24115,7 @@
       </c>
       <c r="IB37">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>121758</v>
       </c>
     </row>
     <row r="38" spans="1:236" x14ac:dyDescent="0.3">
@@ -24053,7 +24145,7 @@
       </c>
       <c r="H38">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>659336</v>
       </c>
       <c r="I38">
         <f t="shared" si="50"/>
@@ -24065,7 +24157,7 @@
       </c>
       <c r="K38">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>477753</v>
       </c>
       <c r="L38">
         <f t="shared" si="50"/>
@@ -24101,7 +24193,7 @@
       </c>
       <c r="T38">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>2329814</v>
       </c>
       <c r="U38">
         <f t="shared" si="50"/>
@@ -24185,7 +24277,7 @@
       </c>
       <c r="AO38">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>448761</v>
       </c>
       <c r="AP38">
         <f t="shared" si="50"/>
@@ -24197,11 +24289,11 @@
       </c>
       <c r="AR38">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>313030</v>
       </c>
       <c r="AS38">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>373937</v>
       </c>
       <c r="AT38">
         <f t="shared" si="50"/>
@@ -24213,11 +24305,11 @@
       </c>
       <c r="AV38">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1129345</v>
       </c>
       <c r="AW38">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>832334</v>
       </c>
       <c r="AX38">
         <f t="shared" si="50"/>
@@ -24269,7 +24361,7 @@
       </c>
       <c r="BJ38">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1258288</v>
       </c>
       <c r="BK38">
         <f t="shared" si="50"/>
@@ -24289,7 +24381,7 @@
       </c>
       <c r="BO38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>712023</v>
       </c>
       <c r="BP38">
         <f t="shared" si="51"/>
@@ -24309,7 +24401,7 @@
       </c>
       <c r="BT38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>681597</v>
       </c>
       <c r="BU38">
         <f t="shared" si="51"/>
@@ -24333,11 +24425,11 @@
       </c>
       <c r="BZ38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>271861</v>
       </c>
       <c r="CA38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>2734910</v>
       </c>
       <c r="CB38">
         <f t="shared" si="51"/>
@@ -24345,7 +24437,7 @@
       </c>
       <c r="CC38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>362425</v>
       </c>
       <c r="CD38">
         <f t="shared" si="51"/>
@@ -24373,15 +24465,15 @@
       </c>
       <c r="CJ38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>2192569</v>
       </c>
       <c r="CK38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>749418</v>
       </c>
       <c r="CL38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1087808</v>
       </c>
       <c r="CM38">
         <f t="shared" si="51"/>
@@ -24417,7 +24509,7 @@
       </c>
       <c r="CU38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>411013</v>
       </c>
       <c r="CV38">
         <f t="shared" si="51"/>
@@ -24449,11 +24541,11 @@
       </c>
       <c r="DC38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1127411</v>
       </c>
       <c r="DD38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>237265</v>
       </c>
       <c r="DE38">
         <f t="shared" si="51"/>
@@ -24505,11 +24597,11 @@
       </c>
       <c r="DQ38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1828571</v>
       </c>
       <c r="DR38">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>637133</v>
       </c>
       <c r="DS38">
         <f t="shared" si="51"/>
@@ -24553,7 +24645,7 @@
       </c>
       <c r="EC38">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>786651</v>
       </c>
       <c r="ED38">
         <f t="shared" si="52"/>
@@ -24569,11 +24661,11 @@
       </c>
       <c r="EG38">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>173312</v>
       </c>
       <c r="EH38">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1378086</v>
       </c>
       <c r="EI38">
         <f t="shared" si="52"/>
@@ -24653,7 +24745,7 @@
       </c>
       <c r="FB38">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1301137</v>
       </c>
       <c r="FC38">
         <f t="shared" si="52"/>
@@ -24729,7 +24821,7 @@
       </c>
       <c r="FU38">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1054994</v>
       </c>
       <c r="FV38">
         <f t="shared" si="52"/>
@@ -24765,7 +24857,7 @@
       </c>
       <c r="GD38">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>761280</v>
       </c>
       <c r="GE38">
         <f t="shared" si="52"/>
@@ -24805,11 +24897,11 @@
       </c>
       <c r="GN38">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>946783</v>
       </c>
       <c r="GO38">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>946050</v>
       </c>
       <c r="GP38">
         <f t="shared" si="53"/>
@@ -24865,7 +24957,7 @@
       </c>
       <c r="HC38">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>2298377</v>
       </c>
       <c r="HD38">
         <f t="shared" si="53"/>
@@ -24877,7 +24969,7 @@
       </c>
       <c r="HF38">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>563872</v>
       </c>
       <c r="HG38">
         <f t="shared" si="53"/>
@@ -24949,7 +25041,7 @@
       </c>
       <c r="HX38">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>630076</v>
       </c>
       <c r="HY38">
         <f t="shared" si="53"/>
@@ -24965,7 +25057,7 @@
       </c>
       <c r="IB38">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>424836</v>
       </c>
     </row>
     <row r="39" spans="1:236" x14ac:dyDescent="0.3">
@@ -24995,7 +25087,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.61710266085880339</v>
       </c>
       <c r="I39">
         <f t="shared" si="54"/>
@@ -25007,7 +25099,7 @@
       </c>
       <c r="K39">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.55016713657475724</v>
       </c>
       <c r="L39">
         <f t="shared" si="54"/>
@@ -25043,7 +25135,7 @@
       </c>
       <c r="T39">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.92571510000369128</v>
       </c>
       <c r="U39">
         <f t="shared" si="54"/>
@@ -25127,7 +25219,7 @@
       </c>
       <c r="AO39">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.91276202700323783</v>
       </c>
       <c r="AP39">
         <f t="shared" si="54"/>
@@ -25139,11 +25231,11 @@
       </c>
       <c r="AR39">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.22407436986870269</v>
       </c>
       <c r="AS39">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.78562966489007502</v>
       </c>
       <c r="AT39">
         <f t="shared" si="54"/>
@@ -25155,11 +25247,11 @@
       </c>
       <c r="AV39">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.19004909925664876</v>
       </c>
       <c r="AW39">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.39810100272246479</v>
       </c>
       <c r="AX39">
         <f t="shared" si="54"/>
@@ -25211,7 +25303,7 @@
       </c>
       <c r="BJ39">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.18249081291405464</v>
       </c>
       <c r="BK39">
         <f t="shared" si="54"/>
@@ -25231,7 +25323,7 @@
       </c>
       <c r="BO39">
         <f t="shared" ref="BO39:DZ39" si="55">IF(AND(BO$8=1, BO38&gt;0),BO37/BO38,0)</f>
-        <v>0</v>
+        <v>0.59750176609463457</v>
       </c>
       <c r="BP39">
         <f t="shared" si="55"/>
@@ -25251,7 +25343,7 @@
       </c>
       <c r="BT39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.26715639886912645</v>
       </c>
       <c r="BU39">
         <f t="shared" si="55"/>
@@ -25275,11 +25367,11 @@
       </c>
       <c r="BZ39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.82552848698415737</v>
       </c>
       <c r="CA39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.35048575638686463</v>
       </c>
       <c r="CB39">
         <f t="shared" si="55"/>
@@ -25287,7 +25379,7 @@
       </c>
       <c r="CC39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>7.004207767124232E-2</v>
       </c>
       <c r="CD39">
         <f t="shared" si="55"/>
@@ -25315,15 +25407,15 @@
       </c>
       <c r="CJ39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.48172577465064953</v>
       </c>
       <c r="CK39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.18908673130349152</v>
       </c>
       <c r="CL39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>8.2037455139142207E-2</v>
       </c>
       <c r="CM39">
         <f t="shared" si="55"/>
@@ -25359,7 +25451,7 @@
       </c>
       <c r="CU39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.26613270139873924</v>
       </c>
       <c r="CV39">
         <f t="shared" si="55"/>
@@ -25391,11 +25483,11 @@
       </c>
       <c r="DC39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.50227556765012937</v>
       </c>
       <c r="DD39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.28913240469517204</v>
       </c>
       <c r="DE39">
         <f t="shared" si="55"/>
@@ -25447,11 +25539,11 @@
       </c>
       <c r="DQ39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.16368136648782028</v>
       </c>
       <c r="DR39">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.24875967812058078</v>
       </c>
       <c r="DS39">
         <f t="shared" si="55"/>
@@ -25495,7 +25587,7 @@
       </c>
       <c r="EC39">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.59439573584728167</v>
       </c>
       <c r="ED39">
         <f t="shared" si="56"/>
@@ -25515,7 +25607,7 @@
       </c>
       <c r="EH39">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.89615669849341772</v>
       </c>
       <c r="EI39">
         <f t="shared" si="56"/>
@@ -25595,7 +25687,7 @@
       </c>
       <c r="FB39">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.1163036636418763</v>
       </c>
       <c r="FC39">
         <f t="shared" si="56"/>
@@ -25671,7 +25763,7 @@
       </c>
       <c r="FU39">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.89711031531932883</v>
       </c>
       <c r="FV39">
         <f t="shared" si="56"/>
@@ -25707,7 +25799,7 @@
       </c>
       <c r="GD39">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>8.9374474569146697E-2</v>
       </c>
       <c r="GE39">
         <f t="shared" si="56"/>
@@ -25747,11 +25839,11 @@
       </c>
       <c r="GN39">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.62239076958500528</v>
       </c>
       <c r="GO39">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>9.7477934570054436E-2</v>
       </c>
       <c r="GP39">
         <f t="shared" si="57"/>
@@ -25807,7 +25899,7 @@
       </c>
       <c r="HC39">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.31358214949070584</v>
       </c>
       <c r="HD39">
         <f t="shared" si="57"/>
@@ -25819,7 +25911,7 @@
       </c>
       <c r="HF39">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.84948357073945857</v>
       </c>
       <c r="HG39">
         <f t="shared" si="57"/>
@@ -25891,7 +25983,7 @@
       </c>
       <c r="HX39">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.89136231184809456</v>
       </c>
       <c r="HY39">
         <f t="shared" si="57"/>
@@ -25907,7 +25999,7 @@
       </c>
       <c r="IB39">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.28660000564923876</v>
       </c>
     </row>
   </sheetData>
